--- a/Формулы.xlsx
+++ b/Формулы.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS2022\SolutionLearn10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProjects\SolutionLearn10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C8367D-D081-4286-B7D9-4DDCFB45405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B4679-84D2-47FA-BADD-EA6D0D675C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{589C2F18-10DB-4ADF-A616-1BD7903450CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{589C2F18-10DB-4ADF-A616-1BD7903450CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отскок" sheetId="1" r:id="rId1"/>
+    <sheet name="Коллизии" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>ax</t>
   </si>
@@ -55,6 +56,18 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Коллизии</t>
+  </si>
+  <si>
+    <t>Центр</t>
+  </si>
+  <si>
+    <t>Точка</t>
+  </si>
+  <si>
+    <t>Вектор</t>
   </si>
 </sst>
 </file>
@@ -80,12 +93,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,12 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,7 +446,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,11 +458,11 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -573,11 +596,11 @@
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -707,4 +730,1838 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7788C0C-521D-4992-BB01-B9762177C7A6}">
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <f>A4-C4</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <f>B4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE("new BallCollision(",C4,", ",D4,", ",E4,", ",F4,"),")</f>
+        <v>new BallCollision(0, 12, 12, 0),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E68" si="0">A5-C5</f>
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F68" si="1">B5-D5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H68" si="2">CONCATENATE("new BallCollision(",C5,", ",D5,", ",E5,", ",F5,"),")</f>
+        <v>new BallCollision(0, 11, 12, 1),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(0, 10, 12, 2),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(0, 9, 12, 3),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(1, 8, 11, 4),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(1, 7, 11, 5),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(2, 6, 10, 6),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(2, 5, 10, 7),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(3, 4, 9, 8),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(4, 3, 8, 9),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(5, 2, 7, 10),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(6, 2, 6, 10),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(7, 1, 5, 11),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(8, 1, 4, 11),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(9, 0, 3, 12),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(10, 0, 2, 12),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(11, 0, 1, 12),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(12, 0, 0, 12),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(13, 0, -1, 12),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(14, 0, -2, 12),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(15, 0, -3, 12),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(16, 1, -4, 11),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(17, 1, -5, 11),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(18, 2, -6, 10),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(19, 2, -7, 10),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(20, 3, -8, 9),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(21, 4, -9, 8),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(22, 5, -10, 7),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(22, 6, -10, 6),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(23, 7, -11, 5),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(23, 8, -11, 4),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(24, 9, -12, 3),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(24, 10, -12, 2),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(24, 11, -12, 1),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(24, 12, -12, 0),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(24, 13, -12, -1),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(24, 14, -12, -2),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(24, 15, -12, -3),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(23, 16, -11, -4),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(23, 17, -11, -5),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(22, 18, -10, -6),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(22, 19, -10, -7),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(21, 20, -9, -8),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(20, 21, -8, -9),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(19, 22, -7, -10),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(18, 22, -6, -10),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(17, 23, -5, -11),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(16, 23, -4, -11),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(15, 24, -3, -12),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(14, 24, -2, -12),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(13, 24, -1, -12),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(12, 24, 0, -12),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(11, 24, 1, -12),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(10, 24, 2, -12),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(9, 24, 3, -12),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(8, 23, 4, -11),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(7, 23, 5, -11),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(6, 22, 6, -10),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(5, 22, 7, -10),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(4, 21, 8, -9),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(3, 20, 9, -8),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(2, 19, 10, -7),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(2, 18, 10, -6),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(1, 17, 11, -5),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
+        <v>new BallCollision(1, 16, 11, -4),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E71" si="3">A69-C69</f>
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F71" si="4">B69-D69</f>
+        <v>-3</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ref="H69:H71" si="5">CONCATENATE("new BallCollision(",C69,", ",D69,", ",E69,", ",F69,"),")</f>
+        <v>new BallCollision(0, 15, 12, -3),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="5"/>
+        <v>new BallCollision(0, 14, 12, -2),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="5"/>
+        <v>new BallCollision(0, 13, 12, -1),</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Формулы.xlsx
+++ b/Формулы.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSProjects\SolutionLearn10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS2022\SolutionLearn10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B4679-84D2-47FA-BADD-EA6D0D675C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702BBE5-CCF3-4A7C-8710-6F5BCAA48C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{589C2F18-10DB-4ADF-A616-1BD7903450CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{589C2F18-10DB-4ADF-A616-1BD7903450CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Отскок" sheetId="1" r:id="rId1"/>
-    <sheet name="Коллизии" sheetId="2" r:id="rId2"/>
+    <sheet name="Бита" sheetId="3" r:id="rId2"/>
+    <sheet name="Мяч" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>ax</t>
   </si>
@@ -68,6 +69,18 @@
   </si>
   <si>
     <t>Вектор</t>
+  </si>
+  <si>
+    <t>Пиксель</t>
+  </si>
+  <si>
+    <t>Градус</t>
+  </si>
+  <si>
+    <t>Радиан</t>
+  </si>
+  <si>
+    <t>Коррекция угла мяча при ударе о биту</t>
   </si>
 </sst>
 </file>
@@ -125,10 +138,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8D28B0-E490-47CF-A715-8199D10AC974}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -458,11 +471,11 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,11 +609,11 @@
         <v>3</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -733,6 +746,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C736082-2572-42BA-B30D-8EAE399A6470}">
+  <dimension ref="A1:C86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>-70</v>
+      </c>
+      <c r="C3">
+        <f>PI()/180*B3</f>
+        <v>-1.2217304763960306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>-68</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">PI()/180*B4</f>
+        <v>-1.1868238913561442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-66</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-1.1519173063162575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-64</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-1.1170107212763709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>-62</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-1.0821041362364843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>-60</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1.0471975511965976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>-58</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1.0122909661567112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>-56</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.97738438111682457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>-54</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.94247779607693793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>-52</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.90757121103705141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>-50</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.87266462599716477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>-48</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-0.83775804095727824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>-46</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.8028514559173916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>-44</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-0.76794487087750496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>-42</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.73303828583761843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>-40</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.69813170079773179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>-38</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.66322511575784526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>-36</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.62831853071795862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>-34</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-0.59341194567807209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>-32</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-0.55850536063818546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>-30</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>-28</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-0.48869219055841229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>-26</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-0.4537856055185257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>-24</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-0.41887902047863912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>-22</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-0.38397243543875248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>-20</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-0.3490658503988659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>-18</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-0.31415926535897931</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>-16</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-0.27925268031909273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>-14</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-0.24434609527920614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>-12</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-0.20943951023931956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>-10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-0.17453292519943295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>-8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-0.13962634015954636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>-6</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-0.10471975511965978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>-4</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-6.9813170079773182E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-3.4906585039886591E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>3.4906585039886591E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>6.9813170079773182E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.10471975511965978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.13962634015954636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.17453292519943295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.20943951023931956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.24434609527920614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.27925268031909273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.31415926535897931</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.38397243543875248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.41887902047863912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.4537856055185257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.48869219055841229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>0.55850536063818546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C86" si="1">PI()/180*B68</f>
+        <v>0.59341194567807209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.62831853071795862</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0.66322511575784526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.69813170079773179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>42</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0.73303828583761843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>44</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0.76794487087750496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>46</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0.8028514559173916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0.83775804095727824</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0.87266462599716477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>52</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0.90757121103705141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>54</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0.94247779607693793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>56</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>0.97738438111682457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>58</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>1.0122909661567112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>1.0471975511965976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>62</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>1.0821041362364843</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>64</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>1.1170107212763709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>66</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>1.1519173063162575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>68</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>1.1868238913561442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>70</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>1.2217304763960306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7788C0C-521D-4992-BB01-B9762177C7A6}">
   <dimension ref="A1:H71"/>
   <sheetViews>
@@ -743,28 +1796,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -799,11 +1852,11 @@
       <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>A4-C4</f>
         <v>12</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>B4-D4</f>
         <v>0</v>
       </c>
@@ -1241,11 +2294,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1683,11 +2736,11 @@
       <c r="D38">
         <v>12</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2125,11 +3178,11 @@
       <c r="D55">
         <v>24</v>
       </c>
-      <c r="E55" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>

--- a/Формулы.xlsx
+++ b/Формулы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS2022\SolutionLearn10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702BBE5-CCF3-4A7C-8710-6F5BCAA48C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D81C3-8CE7-454E-ADC9-CB8E2CF89057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{589C2F18-10DB-4ADF-A616-1BD7903450CE}"/>
   </bookViews>
@@ -747,20 +747,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C736082-2572-42BA-B30D-8EAE399A6470}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -782,8 +782,12 @@
         <f>PI()/180*B3</f>
         <v>-1.2217304763960306</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>CONCATENATE("{",A3,", ",C3,"f },")</f>
+        <v>{8, -1,22173047639603f },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -794,8 +798,12 @@
         <f t="shared" ref="C4:C67" si="0">PI()/180*B4</f>
         <v>-1.1868238913561442</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E67" si="1">CONCATENATE("{",A4,", ",C4,"f },")</f>
+        <v>{9, -1,18682389135614f },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -806,8 +814,12 @@
         <f t="shared" si="0"/>
         <v>-1.1519173063162575</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>{10, -1,15191730631626f },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -818,8 +830,12 @@
         <f t="shared" si="0"/>
         <v>-1.1170107212763709</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>{11, -1,11701072127637f },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -830,8 +846,12 @@
         <f t="shared" si="0"/>
         <v>-1.0821041362364843</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>{12, -1,08210413623648f },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -842,8 +862,12 @@
         <f t="shared" si="0"/>
         <v>-1.0471975511965976</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>{13, -1,0471975511966f },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -854,8 +878,12 @@
         <f t="shared" si="0"/>
         <v>-1.0122909661567112</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>{14, -1,01229096615671f },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -866,8 +894,12 @@
         <f t="shared" si="0"/>
         <v>-0.97738438111682457</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>{15, -0,977384381116825f },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -878,8 +910,12 @@
         <f t="shared" si="0"/>
         <v>-0.94247779607693793</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>{16, -0,942477796076938f },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -890,8 +926,12 @@
         <f t="shared" si="0"/>
         <v>-0.90757121103705141</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>{17, -0,907571211037051f },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -902,8 +942,12 @@
         <f t="shared" si="0"/>
         <v>-0.87266462599716477</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>{18, -0,872664625997165f },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -914,8 +958,12 @@
         <f t="shared" si="0"/>
         <v>-0.83775804095727824</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>{19, -0,837758040957278f },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -926,8 +974,12 @@
         <f t="shared" si="0"/>
         <v>-0.8028514559173916</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>{20, -0,802851455917392f },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -938,8 +990,12 @@
         <f t="shared" si="0"/>
         <v>-0.76794487087750496</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>{21, -0,767944870877505f },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22</v>
       </c>
@@ -950,8 +1006,12 @@
         <f t="shared" si="0"/>
         <v>-0.73303828583761843</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>{22, -0,733038285837618f },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -962,8 +1022,12 @@
         <f t="shared" si="0"/>
         <v>-0.69813170079773179</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>{23, -0,698131700797732f },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -974,8 +1038,12 @@
         <f t="shared" si="0"/>
         <v>-0.66322511575784526</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>{24, -0,663225115757845f },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -986,8 +1054,12 @@
         <f t="shared" si="0"/>
         <v>-0.62831853071795862</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>{25, -0,628318530717959f },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -998,8 +1070,12 @@
         <f t="shared" si="0"/>
         <v>-0.59341194567807209</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>{26, -0,593411945678072f },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1010,8 +1086,12 @@
         <f t="shared" si="0"/>
         <v>-0.55850536063818546</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>{27, -0,558505360638185f },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1022,8 +1102,12 @@
         <f t="shared" si="0"/>
         <v>-0.52359877559829882</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>{28, -0,523598775598299f },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
@@ -1034,8 +1118,12 @@
         <f t="shared" si="0"/>
         <v>-0.48869219055841229</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>{29, -0,488692190558412f },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1046,8 +1134,12 @@
         <f t="shared" si="0"/>
         <v>-0.4537856055185257</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>{30, -0,453785605518526f },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -1058,8 +1150,12 @@
         <f t="shared" si="0"/>
         <v>-0.41887902047863912</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>{31, -0,418879020478639f },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -1070,8 +1166,12 @@
         <f t="shared" si="0"/>
         <v>-0.38397243543875248</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>{32, -0,383972435438752f },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -1082,8 +1182,12 @@
         <f t="shared" si="0"/>
         <v>-0.3490658503988659</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>{33, -0,349065850398866f },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34</v>
       </c>
@@ -1094,8 +1198,12 @@
         <f t="shared" si="0"/>
         <v>-0.31415926535897931</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>{34, -0,314159265358979f },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -1106,8 +1214,12 @@
         <f t="shared" si="0"/>
         <v>-0.27925268031909273</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>{35, -0,279252680319093f },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>36</v>
       </c>
@@ -1118,8 +1230,12 @@
         <f t="shared" si="0"/>
         <v>-0.24434609527920614</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>{36, -0,244346095279206f },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>37</v>
       </c>
@@ -1130,8 +1246,12 @@
         <f t="shared" si="0"/>
         <v>-0.20943951023931956</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>{37, -0,20943951023932f },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>38</v>
       </c>
@@ -1142,8 +1262,12 @@
         <f t="shared" si="0"/>
         <v>-0.17453292519943295</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>{38, -0,174532925199433f },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>39</v>
       </c>
@@ -1154,8 +1278,12 @@
         <f t="shared" si="0"/>
         <v>-0.13962634015954636</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>{39, -0,139626340159546f },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
@@ -1166,8 +1294,12 @@
         <f t="shared" si="0"/>
         <v>-0.10471975511965978</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>{40, -0,10471975511966f },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>41</v>
       </c>
@@ -1178,8 +1310,12 @@
         <f t="shared" si="0"/>
         <v>-6.9813170079773182E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>{41, -0,0698131700797732f },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>42</v>
       </c>
@@ -1190,8 +1326,12 @@
         <f t="shared" si="0"/>
         <v>-3.4906585039886591E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>{42, -0,0349065850398866f },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>43</v>
       </c>
@@ -1202,8 +1342,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>{43, 0f },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>44</v>
       </c>
@@ -1214,8 +1358,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>{44, 0f },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>45</v>
       </c>
@@ -1226,8 +1374,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>{45, 0f },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>46</v>
       </c>
@@ -1238,8 +1390,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>{46, 0f },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>47</v>
       </c>
@@ -1250,8 +1406,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>{47, 0f },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>48</v>
       </c>
@@ -1262,8 +1422,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>{48, 0f },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49</v>
       </c>
@@ -1274,8 +1438,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>{49, 0f },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50</v>
       </c>
@@ -1286,8 +1454,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>{50, 0f },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -1298,8 +1470,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>{51, 0f },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
@@ -1310,8 +1486,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>{52, 0f },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>53</v>
       </c>
@@ -1322,8 +1502,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>{53, 0f },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>54</v>
       </c>
@@ -1334,8 +1518,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>{54, 0f },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -1346,8 +1534,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>{55, 0f },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -1358,8 +1550,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>{56, 0f },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -1370,8 +1566,12 @@
         <f t="shared" si="0"/>
         <v>3.4906585039886591E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>{57, 0,0349065850398866f },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -1382,8 +1582,12 @@
         <f t="shared" si="0"/>
         <v>6.9813170079773182E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>{58, 0,0698131700797732f },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>59</v>
       </c>
@@ -1394,8 +1598,12 @@
         <f t="shared" si="0"/>
         <v>0.10471975511965978</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>{59, 0,10471975511966f },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
@@ -1406,8 +1614,12 @@
         <f t="shared" si="0"/>
         <v>0.13962634015954636</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>{60, 0,139626340159546f },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>61</v>
       </c>
@@ -1418,8 +1630,12 @@
         <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>{61, 0,174532925199433f },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62</v>
       </c>
@@ -1430,8 +1646,12 @@
         <f t="shared" si="0"/>
         <v>0.20943951023931956</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>{62, 0,20943951023932f },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>63</v>
       </c>
@@ -1442,8 +1662,12 @@
         <f t="shared" si="0"/>
         <v>0.24434609527920614</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>{63, 0,244346095279206f },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>64</v>
       </c>
@@ -1454,8 +1678,12 @@
         <f t="shared" si="0"/>
         <v>0.27925268031909273</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>{64, 0,279252680319093f },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -1466,8 +1694,12 @@
         <f t="shared" si="0"/>
         <v>0.31415926535897931</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>{65, 0,314159265358979f },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>66</v>
       </c>
@@ -1478,8 +1710,12 @@
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>{66, 0,349065850398866f },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>67</v>
       </c>
@@ -1490,8 +1726,12 @@
         <f t="shared" si="0"/>
         <v>0.38397243543875248</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>{67, 0,383972435438752f },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>68</v>
       </c>
@@ -1502,8 +1742,12 @@
         <f t="shared" si="0"/>
         <v>0.41887902047863912</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>{68, 0,418879020478639f },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>69</v>
       </c>
@@ -1514,8 +1758,12 @@
         <f t="shared" si="0"/>
         <v>0.4537856055185257</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>{69, 0,453785605518526f },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>70</v>
       </c>
@@ -1526,8 +1774,12 @@
         <f t="shared" si="0"/>
         <v>0.48869219055841229</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>{70, 0,488692190558412f },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>71</v>
       </c>
@@ -1538,8 +1790,12 @@
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>{71, 0,523598775598299f },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>72</v>
       </c>
@@ -1550,8 +1806,12 @@
         <f t="shared" si="0"/>
         <v>0.55850536063818546</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>{72, 0,558505360638185f },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>73</v>
       </c>
@@ -1559,11 +1819,15 @@
         <v>34</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C86" si="1">PI()/180*B68</f>
+        <f t="shared" ref="C68:C86" si="2">PI()/180*B68</f>
         <v>0.59341194567807209</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E86" si="3">CONCATENATE("{",A68,", ",C68,"f },")</f>
+        <v>{73, 0,593411945678072f },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>74</v>
       </c>
@@ -1571,11 +1835,15 @@
         <v>36</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62831853071795862</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>{74, 0,628318530717959f },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>75</v>
       </c>
@@ -1583,11 +1851,15 @@
         <v>38</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66322511575784526</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>{75, 0,663225115757845f },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>76</v>
       </c>
@@ -1595,11 +1867,15 @@
         <v>40</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69813170079773179</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>{76, 0,698131700797732f },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>77</v>
       </c>
@@ -1607,11 +1883,15 @@
         <v>42</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73303828583761843</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>{77, 0,733038285837618f },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>78</v>
       </c>
@@ -1619,11 +1899,15 @@
         <v>44</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76794487087750496</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v>{78, 0,767944870877505f },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>79</v>
       </c>
@@ -1631,11 +1915,15 @@
         <v>46</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8028514559173916</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f t="shared" si="3"/>
+        <v>{79, 0,802851455917392f },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>80</v>
       </c>
@@ -1643,11 +1931,15 @@
         <v>48</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83775804095727824</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f t="shared" si="3"/>
+        <v>{80, 0,837758040957278f },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>81</v>
       </c>
@@ -1655,11 +1947,15 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87266462599716477</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <f t="shared" si="3"/>
+        <v>{81, 0,872664625997165f },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>82</v>
       </c>
@@ -1667,11 +1963,15 @@
         <v>52</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90757121103705141</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <f t="shared" si="3"/>
+        <v>{82, 0,907571211037051f },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>83</v>
       </c>
@@ -1679,11 +1979,15 @@
         <v>54</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94247779607693793</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <f t="shared" si="3"/>
+        <v>{83, 0,942477796076938f },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>84</v>
       </c>
@@ -1691,11 +1995,15 @@
         <v>56</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97738438111682457</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <f t="shared" si="3"/>
+        <v>{84, 0,977384381116825f },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>85</v>
       </c>
@@ -1703,11 +2011,15 @@
         <v>58</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0122909661567112</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f t="shared" si="3"/>
+        <v>{85, 1,01229096615671f },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>86</v>
       </c>
@@ -1715,11 +2027,15 @@
         <v>60</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0471975511965976</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f t="shared" si="3"/>
+        <v>{86, 1,0471975511966f },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>87</v>
       </c>
@@ -1727,11 +2043,15 @@
         <v>62</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0821041362364843</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <f t="shared" si="3"/>
+        <v>{87, 1,08210413623648f },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>88</v>
       </c>
@@ -1739,11 +2059,15 @@
         <v>64</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1170107212763709</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <f t="shared" si="3"/>
+        <v>{88, 1,11701072127637f },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>89</v>
       </c>
@@ -1751,11 +2075,15 @@
         <v>66</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1519173063162575</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <f t="shared" si="3"/>
+        <v>{89, 1,15191730631626f },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>90</v>
       </c>
@@ -1763,11 +2091,15 @@
         <v>68</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1868238913561442</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <f t="shared" si="3"/>
+        <v>{90, 1,18682389135614f },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>91</v>
       </c>
@@ -1775,8 +2107,12 @@
         <v>70</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2217304763960306</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="3"/>
+        <v>{91, 1,22173047639603f },</v>
       </c>
     </row>
   </sheetData>

--- a/Формулы.xlsx
+++ b/Формулы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS2022\SolutionLearn10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D81C3-8CE7-454E-ADC9-CB8E2CF89057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498A3E5-4479-4984-8395-7F1F07CF3B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{589C2F18-10DB-4ADF-A616-1BD7903450CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{589C2F18-10DB-4ADF-A616-1BD7903450CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Отскок" sheetId="1" r:id="rId1"/>
@@ -456,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8D28B0-E490-47CF-A715-8199D10AC974}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-10</v>
       </c>
@@ -539,7 +539,7 @@
         <v>10.000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -567,7 +567,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -595,7 +595,7 @@
         <v>-10.000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>230.8209-205</f>
         <v>25.820899999999995</v>
@@ -645,7 +645,7 @@
         <v>32.000025912959437</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>259.9665-205</f>
         <v>54.966499999999996</v>
@@ -675,7 +675,7 @@
         <v>32.000027200946846</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>230.8209-205</f>
         <v>25.820899999999995</v>
@@ -705,7 +705,7 @@
         <v>-32.000025912959444</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>259.9665-205</f>
         <v>54.966499999999996</v>
@@ -733,6 +733,102 @@
       <c r="H13">
         <f>180/PI()*F13</f>
         <v>32.000027200946846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f>ASIN((-B15)/(SQRT(A15*A15+B15*B15)))</f>
+        <v>-0.46364760900080609</v>
+      </c>
+      <c r="G15">
+        <f>ASIN((A15)/(SQRT(A15*A15+B15*B15)))</f>
+        <v>1.1071487177940904</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:I18" si="3">180/PI()*F15</f>
+        <v>-26.56505117707799</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>63.43494882292201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-20</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F18" si="4">ASIN((-B16)/(SQRT(A16*A16+B16*B16)))</f>
+        <v>-0.46364760900080609</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="5">ASIN((A16)/(SQRT(A16*A16+B16*B16)))</f>
+        <v>-1.1071487177940902</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-26.56505117707799</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>-63.434948822921996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-20</v>
+      </c>
+      <c r="B17">
+        <v>-10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>0.46364760900080609</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>-1.1071487177940902</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>26.56505117707799</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>-63.434948822921996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>-10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>0.46364760900080609</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>1.1071487177940904</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>26.56505117707799</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>63.43494882292201</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C736082-2572-42BA-B30D-8EAE399A6470}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
